--- a/Uploads/FileFormat.xlsx
+++ b/Uploads/FileFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12627B94-467A-4DD1-AFCE-C439C32DA8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18571DD9-CDF4-467B-B90B-A9D1B76BA14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{312F7849-C732-4D77-A136-BA2C873C6A55}"/>
   </bookViews>
@@ -673,7 +673,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
